--- a/fuentes/contenidos/grado09/guion07/Escaleta_CS_09_07_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion07/Escaleta_CS_09_07_CO.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="162">
   <si>
     <t>Asignatura</t>
   </si>
@@ -503,6 +503,9 @@
   </si>
   <si>
     <t>Recuerda cuáles son los hechos que han marcado el mundo actual</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -1225,7 +1228,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1235,8 +1238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="E11" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1385,7 +1388,9 @@
       <c r="H2" s="33">
         <v>1</v>
       </c>
-      <c r="I2" s="33"/>
+      <c r="I2" s="33" t="s">
+        <v>161</v>
+      </c>
       <c r="J2" s="36" t="s">
         <v>101</v>
       </c>
